--- a/crx.dataFixed.xlsx
+++ b/crx.dataFixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\Datamining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F5EC18-2A69-4146-BA39-15F7A1EDB7A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDE0CFA-C56D-4EE8-B0C3-0504BAB83E18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6827" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6820" uniqueCount="34">
   <si>
     <t>b</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>j</t>
@@ -11552,7 +11549,7 @@
                   <c:v>w</c:v>
                 </c:pt>
                 <c:pt idx="534">
-                  <c:v>?</c:v>
+                  <c:v>c</c:v>
                 </c:pt>
                 <c:pt idx="535">
                   <c:v>cc</c:v>
@@ -12226,6 +12223,9 @@
                 <c:pt idx="66">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13846,7 +13846,7 @@
                   <c:v>bb</c:v>
                 </c:pt>
                 <c:pt idx="534">
-                  <c:v>?</c:v>
+                  <c:v>v</c:v>
                 </c:pt>
                 <c:pt idx="535">
                   <c:v>v</c:v>
@@ -14518,6 +14518,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -28527,7 +28530,7 @@
                   <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>?</c:v>
+                  <c:v>184.219</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>980</c:v>
@@ -28920,7 +28923,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>?</c:v>
+                  <c:v>184.219</c:v>
                 </c:pt>
                 <c:pt idx="203">
                   <c:v>49</c:v>
@@ -29040,7 +29043,7 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>?</c:v>
+                  <c:v>184.219</c:v>
                 </c:pt>
                 <c:pt idx="243">
                   <c:v>120</c:v>
@@ -29142,7 +29145,7 @@
                   <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>?</c:v>
+                  <c:v>184.219</c:v>
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>200</c:v>
@@ -29523,7 +29526,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>?</c:v>
+                  <c:v>184.219</c:v>
                 </c:pt>
                 <c:pt idx="404">
                   <c:v>2000</c:v>
@@ -29640,7 +29643,7 @@
                   <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>?</c:v>
+                  <c:v>184.219</c:v>
                 </c:pt>
                 <c:pt idx="443">
                   <c:v>132</c:v>
@@ -30402,7 +30405,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>184.21899999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -30592,6 +30595,12 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>184.21925925925925</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>184.21899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -38422,10 +38431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U683"/>
+  <dimension ref="A1:U684"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A520" zoomScale="104" workbookViewId="0">
-      <selection activeCell="D683" sqref="D683"/>
+    <sheetView tabSelected="1" topLeftCell="A664" zoomScale="104" workbookViewId="0">
+      <selection activeCell="N619" sqref="N619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -42020,8 +42029,8 @@
       <c r="M72" t="s">
         <v>2</v>
       </c>
-      <c r="N72" t="s">
-        <v>27</v>
+      <c r="N72">
+        <v>184.21899999999999</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -42897,10 +42906,10 @@
         <v>2</v>
       </c>
       <c r="F90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -43700,7 +43709,7 @@
         <v>23</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -44950,7 +44959,7 @@
         <v>23</v>
       </c>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H131">
         <v>13</v>
@@ -45497,7 +45506,7 @@
         <v>2</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G142" t="s">
         <v>25</v>
@@ -46197,10 +46206,10 @@
         <v>16</v>
       </c>
       <c r="F156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -46300,7 +46309,7 @@
         <v>23</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -48570,8 +48579,8 @@
       <c r="M203" t="s">
         <v>2</v>
       </c>
-      <c r="N203" t="s">
-        <v>27</v>
+      <c r="N203">
+        <v>184.21899999999999</v>
       </c>
       <c r="O203">
         <v>600</v>
@@ -49450,7 +49459,7 @@
         <v>23</v>
       </c>
       <c r="G221" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H221">
         <v>20</v>
@@ -50570,8 +50579,8 @@
       <c r="M243" t="s">
         <v>2</v>
       </c>
-      <c r="N243" t="s">
-        <v>27</v>
+      <c r="N243">
+        <v>184.21899999999999</v>
       </c>
       <c r="O243">
         <v>26726</v>
@@ -50900,7 +50909,7 @@
         <v>23</v>
       </c>
       <c r="G250" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H250">
         <v>20</v>
@@ -51500,7 +51509,7 @@
         <v>21</v>
       </c>
       <c r="G262" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H262">
         <v>0.33500000000000002</v>
@@ -51700,7 +51709,7 @@
         <v>23</v>
       </c>
       <c r="G266" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -51850,7 +51859,7 @@
         <v>9</v>
       </c>
       <c r="G269" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H269">
         <v>0.21</v>
@@ -52275,8 +52284,8 @@
       <c r="M277" t="s">
         <v>2</v>
       </c>
-      <c r="N277" t="s">
-        <v>27</v>
+      <c r="N277">
+        <v>184.21899999999999</v>
       </c>
       <c r="O277">
         <v>0</v>
@@ -52802,10 +52811,10 @@
         <v>16</v>
       </c>
       <c r="F288" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G288" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H288">
         <v>0</v>
@@ -53802,10 +53811,10 @@
         <v>16</v>
       </c>
       <c r="F308" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G308" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H308">
         <v>0</v>
@@ -54196,16 +54205,16 @@
         <v>22</v>
       </c>
       <c r="D316" t="s">
+        <v>32</v>
+      </c>
+      <c r="E316" t="s">
         <v>33</v>
-      </c>
-      <c r="E316" t="s">
-        <v>34</v>
       </c>
       <c r="F316" t="s">
         <v>25</v>
       </c>
       <c r="G316" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H316">
         <v>0</v>
@@ -54396,10 +54405,10 @@
         <v>0.375</v>
       </c>
       <c r="D320" t="s">
+        <v>32</v>
+      </c>
+      <c r="E320" t="s">
         <v>33</v>
-      </c>
-      <c r="E320" t="s">
-        <v>34</v>
       </c>
       <c r="F320" t="s">
         <v>14</v>
@@ -55555,7 +55564,7 @@
         <v>23</v>
       </c>
       <c r="G343" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H343">
         <v>0</v>
@@ -55802,10 +55811,10 @@
         <v>2</v>
       </c>
       <c r="F348" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G348" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H348">
         <v>0</v>
@@ -56505,7 +56514,7 @@
         <v>23</v>
       </c>
       <c r="G362" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H362">
         <v>0.16500000000000001</v>
@@ -56755,7 +56764,7 @@
         <v>13</v>
       </c>
       <c r="G367" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H367">
         <v>0.75</v>
@@ -56855,7 +56864,7 @@
         <v>23</v>
       </c>
       <c r="G369" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H369">
         <v>0</v>
@@ -57055,7 +57064,7 @@
         <v>23</v>
       </c>
       <c r="G373" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H373">
         <v>1</v>
@@ -58302,7 +58311,7 @@
         <v>16</v>
       </c>
       <c r="F398" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G398" t="s">
         <v>4</v>
@@ -58625,8 +58634,8 @@
       <c r="M404" t="s">
         <v>2</v>
       </c>
-      <c r="N404" t="s">
-        <v>27</v>
+      <c r="N404">
+        <v>184.21899999999999</v>
       </c>
       <c r="O404">
         <v>18</v>
@@ -60502,7 +60511,7 @@
         <v>16</v>
       </c>
       <c r="F442" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G442" t="s">
         <v>25</v>
@@ -60575,8 +60584,8 @@
       <c r="M443" t="s">
         <v>2</v>
       </c>
-      <c r="N443" t="s">
-        <v>27</v>
+      <c r="N443">
+        <v>184.21899999999999</v>
       </c>
       <c r="O443">
         <v>5200</v>
@@ -61452,10 +61461,10 @@
         <v>2</v>
       </c>
       <c r="F461" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G461" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H461">
         <v>0</v>
@@ -63752,10 +63761,10 @@
         <v>2</v>
       </c>
       <c r="F507" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G507" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H507">
         <v>0</v>
@@ -63855,7 +63864,7 @@
         <v>23</v>
       </c>
       <c r="G509" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H509">
         <v>0</v>
@@ -64255,7 +64264,7 @@
         <v>23</v>
       </c>
       <c r="G517" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H517">
         <v>2.25</v>
@@ -65152,10 +65161,10 @@
         <v>2</v>
       </c>
       <c r="F535" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G535" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H535">
         <v>0.54</v>
@@ -65705,7 +65714,7 @@
         <v>23</v>
       </c>
       <c r="G546" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H546">
         <v>12.75</v>
@@ -65805,7 +65814,7 @@
         <v>13</v>
       </c>
       <c r="G548" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H548">
         <v>5.375</v>
@@ -67405,7 +67414,7 @@
         <v>23</v>
       </c>
       <c r="G580" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H580">
         <v>0</v>
@@ -69155,7 +69164,7 @@
         <v>18</v>
       </c>
       <c r="G615" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H615">
         <v>2.25</v>
@@ -69375,8 +69384,8 @@
       <c r="M619" t="s">
         <v>2</v>
       </c>
-      <c r="N619" t="s">
-        <v>27</v>
+      <c r="N619">
+        <v>184.21899999999999</v>
       </c>
       <c r="O619">
         <v>0</v>
@@ -69805,7 +69814,7 @@
         <v>18</v>
       </c>
       <c r="G628" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H628">
         <v>0.96</v>
@@ -72544,9 +72553,26 @@
         <f>AVERAGE(B1:B682)</f>
         <v>31.524716129032296</v>
       </c>
+      <c r="F683" t="str">
+        <f>INDEX(F1:F682,MODE(MATCH(F1:F682,F1:F682,0)))</f>
+        <v>c</v>
+      </c>
+      <c r="G683" t="str">
+        <f>INDEX(G1:G682,MODE(MATCH(G1:G682,G1:G682,0)))</f>
+        <v>v</v>
+      </c>
+      <c r="N683">
+        <f>AVERAGE(N1:N71,N73:N202,N204:N242,N244:N276,N278:N403,N405:N442,N444:N618,N620:N682)</f>
+        <v>184.21925925925925</v>
+      </c>
+    </row>
+    <row r="684" spans="1:16">
+      <c r="N684">
+        <v>184.21899999999999</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q207:XFD690 A692:XFD1048576 B691:XFD691 A683 B685 A1:XFD206 A207:P682">
+  <conditionalFormatting sqref="Q207:XFD690 A692:XFD1048576 B691:XFD691 A683 B685 N684 A1:XFD206 A207:P682">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>(IFERROR(FIND("?",A1),0))</formula>
     </cfRule>
